--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@ My Nerding\# Projects\GGAL_price_range_unitl_opex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@ My Nerding\# Projects\Herramientas Mercado de Capitales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECC75E8-89C5-4C87-A724-DA018503662F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781835A-666A-42A2-A348-2FF584A2157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-45" windowWidth="21840" windowHeight="13140" xr2:uid="{40D4F2D6-1008-4533-A1B8-E245937C4F57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40D4F2D6-1008-4533-A1B8-E245937C4F57}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ticker_byma</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>YPFD</t>
+  </si>
+  <si>
+    <t>^MERV</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1355FD5E-37E3-4AD9-AE48-ED2AF9E5A04C}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,189 +469,197 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <f>+A2&amp; ".BA"</f>
-        <v>ALUA.BA</v>
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B22" si="0">+A3&amp; ".BA"</f>
-        <v>BBAR.BA</v>
+        <f>+A3&amp; ".BA"</f>
+        <v>ALUA.BA</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>BMA.BA</v>
+        <f t="shared" ref="B4:B23" si="0">+A4&amp; ".BA"</f>
+        <v>BBAR.BA</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>BYMA.BA</v>
+        <v>BMA.BA</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>CEPU.BA</v>
+        <v>BYMA.BA</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>COME.BA</v>
+        <v>CEPU.BA</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>CRES.BA</v>
+        <v>COME.BA</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>CVH.BA</v>
+        <v>CRES.BA</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>EDN.BA</v>
+        <v>CVH.BA</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>GGAL.BA</v>
+        <v>EDN.BA</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>LOMA.BA</v>
+        <v>GGAL.BA</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>MIRG.BA</v>
+        <v>LOMA.BA</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>PAMP.BA</v>
+        <v>MIRG.BA</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>SUPV.BA</v>
+        <v>PAMP.BA</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>TECO2.BA</v>
+        <v>SUPV.BA</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>TGNO4.BA</v>
+        <v>TECO2.BA</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>TGSU2.BA</v>
+        <v>TGNO4.BA</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>TRAN.BA</v>
+        <v>TGSU2.BA</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>TXAR.BA</v>
+        <v>TRAN.BA</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>VALO.BA</v>
+        <v>TXAR.BA</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>VALO.BA</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>YPFD.BA</v>
       </c>
